--- a/TestdataGenerator.Library.Test/Data/TestData.xlsx
+++ b/TestdataGenerator.Library.Test/Data/TestData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8F0D54-1FF0-4758-861C-B9A5641006E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="3330" windowWidth="20520" windowHeight="12940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4905" yWindow="3330" windowWidth="20520" windowHeight="12945"/>
   </bookViews>
   <sheets>
     <sheet name="TestObject" sheetId="1" r:id="rId1"/>
@@ -20,36 +19,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Col01</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+  <si>
+    <t>ColInt</t>
+  </si>
+  <si>
+    <t>ColNullableInt</t>
+  </si>
+  <si>
+    <t>NULL</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Col02</t>
+    <t>ColShort</t>
+  </si>
+  <si>
+    <t>ColNullableShort</t>
+  </si>
+  <si>
+    <t>NULL</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Col03</t>
+    <t>ColLong</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ColNullableLong</t>
+  </si>
+  <si>
+    <t>ColDecimal</t>
+  </si>
+  <si>
+    <t>ColNullableDecimal</t>
+  </si>
+  <si>
+    <t>ColDouble</t>
+  </si>
+  <si>
+    <t>ColNullableDouble</t>
+  </si>
+  <si>
+    <t>ColDateTime</t>
+  </si>
+  <si>
+    <t>ColNullableDateTime</t>
+  </si>
+  <si>
+    <t>ColString</t>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>AAA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BBB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CCC</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,9 +117,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -368,19 +400,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,45 +432,162 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>10000000000</v>
+      </c>
+      <c r="F2">
+        <v>10000000000</v>
+      </c>
+      <c r="G2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I2">
+        <v>11.1</v>
+      </c>
+      <c r="J2">
+        <v>11.1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>36526</v>
+      </c>
+      <c r="L2" s="1">
+        <v>73051</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>20000000000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>22.2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1">
+        <v>36527</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>36526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>40179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>43831</v>
+      <c r="E4">
+        <v>30000000000</v>
+      </c>
+      <c r="F4">
+        <v>30000000000</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>33</v>
+      </c>
+      <c r="J4">
+        <v>33</v>
+      </c>
+      <c r="K4" s="1">
+        <v>36528</v>
+      </c>
+      <c r="L4" s="2">
+        <v>73053.416666666672</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>